--- a/docs/Salary.xlsx
+++ b/docs/Salary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyeguday\Oracle Content - Accounts\Oracle Content\Personal\לימודים\תכנון ניסויים\פרויקט גמר- תכנון ניסויים - יחיאל יגודאייב\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\github\yehiel33.github.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7386A0-FB5F-4D6F-B009-D4427AAA35FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEF2AD-4E91-4BA2-8189-B4E59C1C8BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B08A1D60-1B24-40DF-AAF0-F3BC95FF4A4A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B08A1D60-1B24-40DF-AAF0-F3BC95FF4A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="תרגום כותרות לאנגלית" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Municipal_Status</t>
   </si>
   <si>
-    <t>Average_Salary_Per_Month</t>
-  </si>
-  <si>
     <t>אום אל-פחם</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>תמר</t>
+  </si>
+  <si>
+    <t>Avg_Salary</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1400,10 @@
   <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1425,18 +1425,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8">
         <v>5650.8675265645488</v>
@@ -1444,13 +1444,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8">
         <v>7123.4422787841731</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8">
         <v>8305.450038703435</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="8">
         <v>7862.5935064706091</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8">
         <v>8236.2520172819113</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <v>6566.9906148617338</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="8">
         <v>9010.1430114919949</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8">
         <v>8563.7088621698767</v>
@@ -1542,13 +1542,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="8">
         <v>8239.312214416479</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="8">
         <v>6707.7599753516024</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="8">
         <v>8931.6572875647398</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="8">
         <v>7533.8375334601296</v>
@@ -1598,13 +1598,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="8">
         <v>7028.7060997745702</v>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8">
         <v>5128.2011852266633</v>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8">
         <v>6036.7153526405045</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8">
         <v>7561.9983599436064</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="8">
         <v>13114.445603784085</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="8">
         <v>13133.409266296061</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8">
         <v>9212.3149261603376</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8">
         <v>14004.920009034973</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="8">
         <v>12333.637834974023</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8">
         <v>8986.6326802904314</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="8">
         <v>9425.1959996843634</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8">
         <v>10136.088702428688</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="8">
         <v>6688.1054227910545</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="8">
         <v>6219.8778103903724</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="8">
         <v>6763.0991204531902</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="8">
         <v>8295.8253678129804</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="8">
         <v>5887.5691977006372</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="8">
         <v>10119.545036604497</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="8">
         <v>11540.205774233684</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="8">
         <v>11484.838665996595</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="8">
         <v>7529.4361839488029</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="8">
         <v>11095.17723195761</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="8">
         <v>12609.409239081275</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="8">
         <v>6107.3556067172267</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="8">
         <v>8959.2265300185882</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="8">
         <v>7443.1366387268117</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="8">
         <v>7504.0447633112481</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="8">
         <v>4914.8865642534556</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="8">
         <v>14491.306722289572</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="8">
         <v>9631.4981867204187</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="8">
         <v>8276.1927649404824</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="8">
         <v>9650.1988277912387</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="8">
         <v>13501.672259932418</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="8">
         <v>6609.8322715956401</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="8">
         <v>7516.9068088140803</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="8">
         <v>10121.475380247124</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="8">
         <v>6862.4329883585042</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="8">
         <v>8831.1963836735813</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="8">
         <v>6482.9241374416142</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" s="8">
         <v>7378.4423871379895</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="8">
         <v>7846.463013515322</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="8">
         <v>6318.4683381292407</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="8">
         <v>7689.5994002086227</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="8">
         <v>10559.897887831297</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" s="8">
         <v>6214.3966745520302</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="8">
         <v>6546.7529305507514</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="8">
         <v>14532.246440761064</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" s="8">
         <v>8943.4581736116033</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="8">
         <v>9450.1672628781689</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="8">
         <v>7307.3574766649053</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" s="8">
         <v>7865.3327145107405</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" s="8">
         <v>9959.5763626026146</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" s="8">
         <v>6649.354450458578</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" s="8">
         <v>7708.551563030921</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="8">
         <v>10807.270427958207</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="8">
         <v>10492.389319247904</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="8">
         <v>5389.0924489795916</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="8">
         <v>10809.663459316211</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="8">
         <v>7563.2559938403219</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="8">
         <v>11359.916107100125</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="8">
         <v>14451.113700182275</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="8">
         <v>12897.717361501514</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" s="8">
         <v>7790.9890378804903</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="8">
         <v>6701.7719103746058</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="8">
         <v>11606.016519326322</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="8">
         <v>7054.7175290109653</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80" s="8">
         <v>6688.5297741593358</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="8">
         <v>14368.195781003642</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="8">
         <v>13479.637951084102</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="8">
         <v>9579.8180630478764</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="8">
         <v>6694.9136604361374</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="8">
         <v>8974.5661636680215</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="8">
         <v>12452.473159898476</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="8">
         <v>11939.512051131927</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D88" s="8">
         <v>6474.2384908112126</v>
@@ -2648,13 +2648,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="8">
         <v>10484.862276440716</v>
@@ -2662,13 +2662,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="8">
         <v>11568.501350540217</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="8">
         <v>5903.7607921386889</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="8">
         <v>5690.1781052486949</v>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="8">
         <v>6143.4274897559235</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="8">
         <v>7561.2047416843598</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D95" s="8">
         <v>11185.400400983055</v>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D96" s="8">
         <v>7199.4174976481654</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="8">
         <v>10432.100605787524</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="8">
         <v>8040.7279543821842</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" s="8">
         <v>14087.974201845967</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" s="8">
         <v>5978.8843947954119</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="8">
         <v>6230.0296506282566</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="8">
         <v>5315.7827558741537</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103" s="8">
         <v>8820.8379365079363</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104" s="8">
         <v>5971.6258483947231</v>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D105" s="8">
         <v>11791.204021047892</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" s="8">
         <v>8042.5842577030817</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="8">
         <v>5483.6721708215537</v>
@@ -2914,13 +2914,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D108" s="8">
         <v>11437.077720057719</v>
@@ -2928,13 +2928,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109" s="8">
         <v>14354.200380578941</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="8">
         <v>5491.8978746102084</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111" s="8">
         <v>8482.249943579327</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D112" s="8">
         <v>7726.8447296238246</v>
@@ -2984,13 +2984,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D113" s="8">
         <v>7730.3492552308562</v>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D114" s="8">
         <v>6716.7464335208278</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D115" s="8">
         <v>6899.0735120220734</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D116" s="8">
         <v>6457.8638734739179</v>
@@ -3040,13 +3040,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D117" s="8">
         <v>15096.728413654619</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D118" s="8">
         <v>13898.901165845649</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D119" s="8">
         <v>6818.3439431036495</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" s="8">
         <v>6153.7318451467727</v>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D121" s="8">
         <v>6112.0605036607931</v>
@@ -3110,13 +3110,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D122" s="8">
         <v>8112.1443567144079</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D123" s="8">
         <v>7340.7231536021745</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D124" s="8">
         <v>8703.0106135128135</v>
@@ -3152,13 +3152,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D125" s="8">
         <v>5939.4243966188415</v>
@@ -3166,13 +3166,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D126" s="8">
         <v>6087.5183311875426</v>
@@ -3180,13 +3180,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D127" s="8">
         <v>7604.6250857338819</v>
@@ -3194,13 +3194,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D128" s="8">
         <v>6530.5957059679768</v>
@@ -3208,13 +3208,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D129" s="8">
         <v>10384.086214539007</v>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D130" s="8">
         <v>6124.9701100110015</v>
@@ -3236,13 +3236,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D131" s="8">
         <v>8341.5997226424606</v>
@@ -3250,13 +3250,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D132" s="8">
         <v>6977.409144373325</v>
@@ -3264,13 +3264,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D133" s="8">
         <v>6421.1763487680546</v>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" s="8">
         <v>7114.0701156546884</v>
@@ -3292,13 +3292,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D135" s="8">
         <v>14589.46477508188</v>
@@ -3306,13 +3306,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" s="8">
         <v>6067.1127000536026</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D137" s="8">
         <v>7477.7213235995805</v>
@@ -3334,13 +3334,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D138" s="8">
         <v>6343.4255104975555</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D139" s="8">
         <v>6605.7302616609786</v>
@@ -3362,13 +3362,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D140" s="8">
         <v>13700.603405017921</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D141" s="8">
         <v>7071.9812175692468</v>
@@ -3390,13 +3390,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" s="8">
         <v>8428.6564744402203</v>
@@ -3404,13 +3404,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D143" s="8">
         <v>5589.5631367398919</v>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D144" s="8">
         <v>5268.5769847050251</v>
@@ -3432,13 +3432,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D145" s="8">
         <v>7238.7675011032215</v>
@@ -3446,13 +3446,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D146" s="8">
         <v>16694.210777626195</v>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D147" s="8">
         <v>12928.819887429643</v>
@@ -3474,13 +3474,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D148" s="8">
         <v>16896.885413526277</v>
@@ -3488,13 +3488,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D149" s="8">
         <v>5797.1540948275861</v>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D150" s="8">
         <v>12165.575290572535</v>
@@ -3516,13 +3516,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D151" s="8">
         <v>6617.6374064190941</v>
@@ -3530,13 +3530,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D152" s="8">
         <v>5907.1364591339998</v>
@@ -3544,13 +3544,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D153" s="8">
         <v>8208.3898001508296</v>
@@ -3558,13 +3558,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D154" s="8">
         <v>5341.2464785961602</v>
@@ -3572,13 +3572,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D155" s="8">
         <v>13811.582557145428</v>
@@ -3586,13 +3586,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D156" s="8">
         <v>6515.0662608081875</v>
@@ -3600,13 +3600,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D157" s="8">
         <v>8977.0736861448004</v>
@@ -3614,13 +3614,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D158" s="8">
         <v>15582.396145494029</v>
@@ -3628,13 +3628,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D159" s="8">
         <v>5360.8859587435536</v>
@@ -3642,13 +3642,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D160" s="8">
         <v>9191.3594664931679</v>
@@ -3656,13 +3656,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D161" s="8">
         <v>7351.7726254480285</v>
@@ -3670,13 +3670,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D162" s="8">
         <v>5906.9028203279868</v>
@@ -3684,13 +3684,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D163" s="8">
         <v>7254.2500342653511</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D164" s="8">
         <v>5726.918953732913</v>
@@ -3712,13 +3712,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D165" s="8">
         <v>5994.9070368858038</v>
@@ -3726,13 +3726,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D166" s="8">
         <v>7525.8884087442802</v>
@@ -3740,13 +3740,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D167" s="8">
         <v>17641.853439153438</v>
@@ -3754,13 +3754,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D168" s="8">
         <v>7236.3244697689142</v>
@@ -3768,13 +3768,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D169" s="8">
         <v>16675.383481953289</v>
@@ -3782,13 +3782,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D170" s="8">
         <v>7859.1047226582941</v>
@@ -3796,13 +3796,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D171" s="8">
         <v>5575.9017489711932</v>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D172" s="8">
         <v>5443.6693297825122</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D173" s="8">
         <v>5987.0905475397703</v>
@@ -3838,13 +3838,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D174" s="8">
         <v>5056.5847837552747</v>
@@ -3852,13 +3852,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D175" s="8">
         <v>8001.5371489678255</v>
@@ -3866,13 +3866,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D176" s="8">
         <v>6631.3723902765578</v>
@@ -3880,13 +3880,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D177" s="8">
         <v>5969.5038692681319</v>
@@ -3894,13 +3894,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D178" s="8">
         <v>6101.0160303251732</v>
@@ -3908,13 +3908,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D179" s="8">
         <v>8074.6767061663377</v>
@@ -3922,13 +3922,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D180" s="8">
         <v>7517.8079807692311</v>
@@ -3936,13 +3936,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D181" s="8">
         <v>10701.874792191773</v>
@@ -3950,13 +3950,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D182" s="8">
         <v>12642.10446357878</v>
@@ -3964,13 +3964,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D183" s="8">
         <v>9535.0158342381474</v>
@@ -3978,13 +3978,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D184" s="8">
         <v>13134.744976130572</v>
@@ -3992,13 +3992,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D185" s="8">
         <v>7073.1390045332591</v>
@@ -4006,13 +4006,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D186" s="8">
         <v>6481.8789367998306</v>
@@ -4020,13 +4020,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D187" s="8">
         <v>12608.179571479692</v>
@@ -4034,13 +4034,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D188" s="8">
         <v>6106.9431074519734</v>
@@ -4048,13 +4048,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D189" s="8">
         <v>8217.0169894044575</v>
@@ -4062,13 +4062,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D190" s="8">
         <v>9240.5329441938629</v>
@@ -4076,13 +4076,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D191" s="8">
         <v>7562.9224364386901</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D192" s="8">
         <v>9775.473714817399</v>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D193" s="8">
         <v>6110.7468274763669</v>
@@ -4118,13 +4118,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D194" s="8">
         <v>5540.4693912117691</v>
@@ -4132,13 +4132,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D195" s="8">
         <v>12830.757595714787</v>
@@ -4146,13 +4146,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D196" s="8">
         <v>6563.9226382179277</v>
@@ -4160,13 +4160,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D197" s="8">
         <v>5412.116313932981</v>
@@ -4174,13 +4174,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D198" s="8">
         <v>15179.938949553289</v>
@@ -4188,13 +4188,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D199" s="8">
         <v>8925.1769427402869</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D200" s="8">
         <v>5720.7257425156786</v>
@@ -4216,13 +4216,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D201" s="8">
         <v>14516.783603692173</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D202" s="8">
         <v>5278.4055375143762</v>
@@ -4244,13 +4244,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D203" s="8">
         <v>5488.8212336525594</v>
@@ -4258,13 +4258,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D204" s="8">
         <v>6022.6406385987812</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D205" s="8">
         <v>12004.484546833522</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D206" s="8">
         <v>9269.9039795971203</v>
@@ -4300,13 +4300,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D207" s="8">
         <v>11324.939410196384</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D208" s="8">
         <v>6776.8613801452784</v>
@@ -4328,13 +4328,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D209" s="8">
         <v>12473.455984120046</v>
@@ -4342,13 +4342,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D210" s="8">
         <v>13320.389486677846</v>
@@ -4356,13 +4356,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D211" s="8">
         <v>14599.636991499696</v>
@@ -4370,13 +4370,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D212" s="8">
         <v>8942.8246965452854</v>
@@ -4384,13 +4384,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D213" s="8">
         <v>9591.6656522352769</v>
@@ -4398,13 +4398,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D214" s="8">
         <v>12606.75146067109</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D215" s="8">
         <v>13774.158617073772</v>
@@ -4426,13 +4426,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D216" s="8">
         <v>13412.406908462866</v>
@@ -4440,13 +4440,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D217" s="8">
         <v>8659.6073563749269</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D218" s="8">
         <v>9063.5100513428115</v>
@@ -4468,13 +4468,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D219" s="8">
         <v>10598.779614200326</v>
@@ -4482,13 +4482,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D220" s="8">
         <v>8536.6418263934793</v>
@@ -4496,13 +4496,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D221" s="8">
         <v>9453.5343499691935</v>
@@ -4510,13 +4510,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D222" s="8">
         <v>10165.654956717657</v>
@@ -4524,13 +4524,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D223" s="8">
         <v>8892.7818853298231</v>
@@ -4538,13 +4538,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D224" s="8">
         <v>10495.927357345205</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D225" s="8">
         <v>12040.237299965951</v>
@@ -4566,13 +4566,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D226" s="8">
         <v>10780.446249948118</v>
@@ -4580,13 +4580,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D227" s="8">
         <v>12279.071714236034</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D228" s="8">
         <v>13157.415738490618</v>
@@ -4608,13 +4608,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D229" s="8">
         <v>13052.096338350497</v>
@@ -4622,13 +4622,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D230" s="8">
         <v>12656.66410454156</v>
@@ -4636,13 +4636,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D231" s="8">
         <v>10293.749162561577</v>
@@ -4650,13 +4650,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D232" s="8">
         <v>9575.2655351511785</v>
@@ -4664,13 +4664,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D233" s="8">
         <v>10820.715677992615</v>
@@ -4678,13 +4678,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D234" s="8">
         <v>9774.8952049497293</v>
@@ -4692,13 +4692,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D235" s="8">
         <v>10706.169682431751</v>
@@ -4706,13 +4706,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D236" s="8">
         <v>9333.3737943034375</v>
@@ -4720,13 +4720,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D237" s="8">
         <v>10954.035891662106</v>
@@ -4734,13 +4734,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D238" s="8">
         <v>10953.322413939472</v>
@@ -4748,13 +4748,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D239" s="8">
         <v>9818.0087781372149</v>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D240" s="8">
         <v>8294.6070512820515</v>
@@ -4776,13 +4776,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D241" s="8">
         <v>9876.1014442916094</v>
@@ -4790,13 +4790,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D242" s="8">
         <v>12088.07560718994</v>
@@ -4804,13 +4804,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D243" s="8">
         <v>5484.1437793427231</v>
@@ -4818,13 +4818,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D244" s="8">
         <v>9677.4711210901205</v>
@@ -4832,13 +4832,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D245" s="8">
         <v>8743.7578005787946</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D246" s="8">
         <v>8798.1581918620323</v>
@@ -4860,13 +4860,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D247" s="8">
         <v>12568.636588899055</v>
@@ -4874,13 +4874,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D248" s="8">
         <v>12789.473545046536</v>
@@ -4888,13 +4888,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D249" s="8">
         <v>9747.5743342985297</v>
@@ -4902,13 +4902,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D250" s="8">
         <v>8955.3049568965525</v>
@@ -4916,13 +4916,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D251" s="8">
         <v>10404.291571319603</v>
@@ -4930,13 +4930,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D252" s="8">
         <v>9483.4842023862129</v>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D253" s="8">
         <v>10098.842283968082</v>
@@ -4958,13 +4958,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D254" s="8">
         <v>11001.722933720623</v>
@@ -4972,13 +4972,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D255" s="8">
         <v>9267.5247898253929</v>
@@ -4986,13 +4986,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D256" s="8">
         <v>8280.423021374927</v>
